--- a/output/xlsx/UC013 - Registrar Liquidação--GT-.xlsx
+++ b/output/xlsx/UC013 - Registrar Liquidação--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC013 - Registrar Liquidação--GT-.xlsx
+++ b/output/xlsx/UC013 - Registrar Liquidação--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O Sistema identifica a solicitação a ter a liquidação registrada (recebida por parâmetro). Exibe os dados da solicitação para o usuário.</t>
+    <t>O sistema identifica a solicitação a ter a liquidação registrada (recebida por parâmetro). Exibe os dados da solicitação para o usuário.</t>
   </si>
   <si>
     <t>#</t>
@@ -119,7 +119,7 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>SYSTEM Verifica que já existe um número de liquidação (considerando também o mesmo exercício) registrado na base de dados; Interrompe a operação e exibe mensagem de erro (MSG211 - Número da liquidação já existe.) para o usuário.</t>
+    <t>SYSTEM Verifica que já existe um número de liquidação (considerando também o mesmo exercício) registrado na base de dados; Interrompe a operação e exibe mensagem de erro (MSG211 - Número da liquidação já existe) para o usuário.</t>
   </si>
 </sst>
 </file>
